--- a/public/upload/export_excel/ข้อมูลมิเตอร์น้ำ06-2025.xlsx
+++ b/public/upload/export_excel/ข้อมูลมิเตอร์น้ำ06-2025.xlsx
@@ -1170,9 +1170,11 @@
         <v>1005.0</v>
       </c>
       <c r="D7" s="1">
-        <v>1005.0</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>1010.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
